--- a/data/trans_dic/DCD-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Estudios-trans_dic.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,78</t>
+          <t>10,44; 14,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,75</t>
+          <t>10,0; 14,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,21</t>
+          <t>23,28; 29,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,67</t>
+          <t>22,0; 26,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,25</t>
+          <t>18,79; 24,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 47,06</t>
+          <t>40,92; 46,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 20,83</t>
+          <t>17,52; 20,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 19,42</t>
+          <t>15,52; 19,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 39,41</t>
+          <t>34,9; 39,48</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,96</t>
+          <t>3,92; 5,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,37</t>
+          <t>4,27; 6,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,08</t>
+          <t>10,05; 13,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,85</t>
+          <t>10,43; 13,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,19</t>
+          <t>9,13; 12,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,16</t>
+          <t>17,78; 23,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,23</t>
+          <t>7,43; 9,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,75</t>
+          <t>7,03; 8,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 17,75</t>
+          <t>14,98; 17,82</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,22</t>
+          <t>1,22; 4,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,02</t>
+          <t>2,8; 6,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,14</t>
+          <t>5,98; 10,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,88</t>
+          <t>7,26; 13,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,72</t>
+          <t>5,21; 9,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,73</t>
+          <t>17,23; 22,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,9</t>
+          <t>4,49; 7,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,76</t>
+          <t>4,46; 7,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,0</t>
+          <t>12,43; 16,05</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,55</t>
+          <t>5,76; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,66</t>
+          <t>5,93; 7,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,45</t>
+          <t>12,01; 14,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,51</t>
+          <t>15,05; 17,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,36</t>
+          <t>11,99; 14,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 27,39</t>
+          <t>23,08; 27,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 12,38</t>
+          <t>10,8; 12,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 10,74</t>
+          <t>9,23; 10,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 20,98</t>
+          <t>18,74; 20,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,58</t>
+          <t>10,44; 14,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,82</t>
+          <t>9,99; 14,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,0; 26,71</t>
+          <t>21,96; 26,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,24</t>
+          <t>18,78; 24,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,91</t>
+          <t>17,69; 20,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,52; 19,27</t>
+          <t>15,57; 19,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,95</t>
+          <t>4,0; 6,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,46</t>
+          <t>4,21; 6,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 13,83</t>
+          <t>10,49; 13,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,05</t>
+          <t>9,19; 11,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 9,38</t>
+          <t>7,41; 9,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 8,76</t>
+          <t>6,92; 8,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,36</t>
+          <t>1,09; 4,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,62</t>
+          <t>2,86; 6,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,07</t>
+          <t>7,19; 13,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,76</t>
+          <t>5,14; 9,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,82</t>
+          <t>4,46; 7,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,55</t>
+          <t>4,56; 7,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 7,53</t>
+          <t>5,83; 7,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 7,66</t>
+          <t>5,87; 7,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 17,63</t>
+          <t>15,0; 17,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 14,46</t>
+          <t>11,93; 14,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,41</t>
+          <t>10,78; 12,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 10,69</t>
+          <t>9,17; 10,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/DCD-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,67</t>
+          <t>10,3; 14,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 14,9</t>
+          <t>10,02; 14,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 29,78</t>
+          <t>23,07; 30,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,96; 26,77</t>
+          <t>22,07; 26,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 24,27</t>
+          <t>18,43; 24,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,92; 46,77</t>
+          <t>41,28; 47,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 20,99</t>
+          <t>17,54; 20,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 19,33</t>
+          <t>15,69; 19,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,9; 39,48</t>
+          <t>34,75; 39,41</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,01</t>
+          <t>4,01; 5,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,34</t>
+          <t>4,37; 6,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 13,2</t>
+          <t>10,0; 13,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,66</t>
+          <t>10,53; 13,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,88</t>
+          <t>9,16; 12,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 23,2</t>
+          <t>17,59; 23,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,21</t>
+          <t>7,39; 9,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,81</t>
+          <t>7,01; 8,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 17,82</t>
+          <t>14,95; 17,75</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,0</t>
+          <t>1,23; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,88</t>
+          <t>2,95; 7,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,34</t>
+          <t>6,02; 10,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,12</t>
+          <t>6,88; 12,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,57</t>
+          <t>5,08; 9,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 22,71</t>
+          <t>17,28; 22,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,86</t>
+          <t>4,48; 7,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,56</t>
+          <t>4,6; 7,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 16,05</t>
+          <t>12,24; 16,0</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,68</t>
+          <t>5,84; 7,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,6</t>
+          <t>5,86; 7,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,47</t>
+          <t>12,0; 14,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 17,63</t>
+          <t>15,12; 17,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 14,36</t>
+          <t>11,96; 14,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,08; 27,41</t>
+          <t>23,25; 27,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 12,33</t>
+          <t>10,84; 12,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 10,69</t>
+          <t>9,21; 10,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 20,94</t>
+          <t>18,72; 20,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Estudios-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +542,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>17,47%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>37,08%</t>
+          <t>36,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,3; 14,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,78</t>
+          <t>10,02; 14,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,75</t>
+          <t>22,45; 29,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,21</t>
+          <t>22,07; 26,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,43; 24,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,67</t>
+          <t>41,07; 46,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,25</t>
+          <t>17,54; 20,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 47,06</t>
+          <t>15,69; 19,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>17,54; 20,83</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>15,69; 19,42</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>34,75; 39,41</t>
+          <t>34,24; 38,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,5%</t>
+          <t>14,99%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,01; 5,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,96</t>
+          <t>4,37; 6,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,37</t>
+          <t>7,33; 12,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,08</t>
+          <t>10,53; 13,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,16; 12,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,85</t>
+          <t>13,59; 22,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,19</t>
+          <t>7,39; 9,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,16</t>
+          <t>7,01; 8,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 9,23</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 8,75</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>14,95; 17,75</t>
+          <t>12,02; 16,82</t>
         </is>
       </c>
     </row>
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>14,0%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,23; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,22</t>
+          <t>2,95; 7,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,02</t>
+          <t>5,98; 10,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,14</t>
+          <t>6,88; 12,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,08; 9,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,88</t>
+          <t>17,1; 22,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,72</t>
+          <t>4,48; 7,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,73</t>
+          <t>4,6; 7,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 7,9</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 7,76</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>12,24; 16,0</t>
+          <t>12,05; 15,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>9,98%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,97%</t>
+          <t>18,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,84; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,55</t>
+          <t>5,86; 7,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,66</t>
+          <t>9,76; 13,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,45</t>
+          <t>15,12; 17,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,96; 14,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,51</t>
+          <t>19,12; 26,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,36</t>
+          <t>10,84; 12,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 27,39</t>
+          <t>9,21; 10,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>10,84; 12,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 10,74</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>18,72; 20,98</t>
+          <t>15,93; 20,11</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1068,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/DCD-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,78</t>
+          <t>10,34; 14,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,75</t>
+          <t>9,97; 14,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,5</t>
+          <t>22,57; 29,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,67</t>
+          <t>21,84; 26,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,25</t>
+          <t>18,67; 24,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,07; 46,63</t>
+          <t>40,9; 46,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 20,83</t>
+          <t>17,46; 20,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 19,42</t>
+          <t>15,65; 19,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,24; 38,82</t>
+          <t>34,2; 38,68</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,96</t>
+          <t>3,97; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,37</t>
+          <t>4,27; 6,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,29</t>
+          <t>7,55; 12,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,85</t>
+          <t>10,51; 13,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,19</t>
+          <t>9,08; 11,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 22,5</t>
+          <t>14,22; 22,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,23</t>
+          <t>7,43; 9,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,75</t>
+          <t>7,01; 8,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,82</t>
+          <t>11,75; 16,8</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,22</t>
+          <t>1,21; 4,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,02</t>
+          <t>2,87; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,11</t>
+          <t>6,07; 10,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,88</t>
+          <t>7,11; 13,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,72</t>
+          <t>5,1; 9,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 22,63</t>
+          <t>16,74; 22,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,9</t>
+          <t>4,45; 7,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,76</t>
+          <t>4,54; 7,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 15,72</t>
+          <t>12,07; 15,4</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,55</t>
+          <t>5,82; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,66</t>
+          <t>5,95; 7,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,77</t>
+          <t>9,68; 13,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,51</t>
+          <t>15,07; 17,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,36</t>
+          <t>11,93; 14,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 26,73</t>
+          <t>19,51; 26,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 12,38</t>
+          <t>10,86; 12,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 10,74</t>
+          <t>9,24; 10,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 20,11</t>
+          <t>16,3; 20,12</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>120012</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>93079</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>133758</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>324253</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>212434</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>329675</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>444265</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>305514</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>463433</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>100749; 144682</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>75199; 111921</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>116207; 150880</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>292174; 359098</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>185705; 239160</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>309021; 351079</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>403662; 482635</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>273676; 339858</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>434549; 491461</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>96430</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>109507</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>238983</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>211411</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>209636</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>439904</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>307841</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>319144</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>678887</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>78066; 117826</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88707; 130765</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>173004; 283542</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>184775; 243163</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>180577; 237985</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>318244; 503224</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>276369; 344610</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>284821; 357390</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>532178; 760919</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11101</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25439</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51304</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>44569</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39394</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>129148</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55670</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64834</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>180452</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5824; 19961</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15688; 37636</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39278; 65368</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32611; 59836</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28023; 52963</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>110584; 147282</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41787; 72634</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49801; 82746</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>157763; 201333</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>227543</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>228026</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>424045</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>580234</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>461465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>898727</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>807777</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>689491</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1322772</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>198959; 258314</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>200819; 259046</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>334084; 475244</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>535781; 622143</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>421505; 506472</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>712815; 974185</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>757468; 866106</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>638517; 742131</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1158528; 1429816</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>